--- a/data/NewProduct.xlsx
+++ b/data/NewProduct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\pointOfSale-workspace\makaia_framework-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testleaf\makaia_framework-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E81E3-895C-4972-93B7-AA662D13AC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,23 +372,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -404,7 +405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,20 +428,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="8cff186d-a7e0-45ea-b789-e61505dbcb46" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="8cff186d-a7e0-45ea-b789-e61505dbcb46" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,6 +680,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A7D0E8-963A-4755-9C6A-56D18D470C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2FCB182-281B-4DF0-8855-C00A301FFD65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -691,14 +700,6 @@
     <ds:schemaRef ds:uri="8cff186d-a7e0-45ea-b789-e61505dbcb46"/>
     <ds:schemaRef ds:uri="babdf5ca-2c38-4b41-9b23-4a4d6b11a27f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A7D0E8-963A-4755-9C6A-56D18D470C0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
